--- a/biology/Médecine/Samuel_Eisenmenger/Samuel_Eisenmenger.xlsx
+++ b/biology/Médecine/Samuel_Eisenmenger/Samuel_Eisenmenger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Samuel Eisenmenger, dit Siderocrates (né le 28 septembre 1534 à Bretten, mort à Bruchsal le 28 février 1585), étudiait à Wittemberg auprès de Philipp Melanchthon. Professeur de médecine et de mathématiques à l'université de Tübingen en 1557, il s'intéresse à la cartographie ainsi qu'à la signification astrologique des éclipses lunaires et solaires. En 1568, on lui retire sa chaire universitaire en raison de ses sympathies pour les idées du théologien Caspar Schwenckfeld von Ossig. Eisenmenger fut le médecin personnel de l'évêque de Spire, du margrave de Bade, de l'archevêque de Cologne et de l'évêque de Strasbourg. Il édita des œuvres de Paracelse et publia des ouvrages essentiellement consacrés à la médecine astrologique.
 </t>
@@ -511,7 +523,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cyclopaedia Paracelsica Christiana. Drey Bücher von dem waren Ursprung und Herkommen der freyen Künsten, auch der Physiognomia, obern Wunderwercken und Witterungen, Bruxelles, 1585.
 De methode iatromathematicae conjonctionis qua astrologiae fundamenta certissima indicantur, Strasbourg, 1563,
